--- a/biology/Botanique/Éther_diméthylique_de_cannabidiol/Éther_diméthylique_de_cannabidiol.xlsx
+++ b/biology/Botanique/Éther_diméthylique_de_cannabidiol/Éther_diméthylique_de_cannabidiol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ther_dim%C3%A9thylique_de_cannabidiol</t>
+          <t>Éther_diméthylique_de_cannabidiol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'éther diméthylique de cannabidiol est un composant à l'état de trace du cannabis qui peut également être fabriqué synthétiquement. C'est un inhibiteur puissant et sélectif de l'enzyme 15-lipoxygénase et inhibe l'oxygénation de l'acide linoléique, un processus impliqué dans le développement de l'athérosclérose[1],[2].
+L'éther diméthylique de cannabidiol est un composant à l'état de trace du cannabis qui peut également être fabriqué synthétiquement. C'est un inhibiteur puissant et sélectif de l'enzyme 15-lipoxygénase et inhibe l'oxygénation de l'acide linoléique, un processus impliqué dans le développement de l'athérosclérose,.
 </t>
         </is>
       </c>
